--- a/1. CR_Test Case.xlsx
+++ b/1. CR_Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morsh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Assignment\Code Rex Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90977C-2781-44FE-9C9B-FB8C241F78B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399808D3-D924-43D0-AC82-3BAB4CC00ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>PASS</t>
   </si>
@@ -389,6 +389,22 @@
   </si>
   <si>
     <t>Md. Morshedul Islam</t>
+  </si>
+  <si>
+    <t>Use the correct format. (E.g: ..gmail.com, …yahoo@com, etc)</t>
+  </si>
+  <si>
+    <t>1. Enter a valid email
+2. Slid to get sms code</t>
+  </si>
+  <si>
+    <t>An OTP should be sent to that  email address</t>
+  </si>
+  <si>
+    <t>An OTP is sent to that email address</t>
+  </si>
+  <si>
+    <t>TC021</t>
   </si>
 </sst>
 </file>
@@ -764,92 +780,92 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="12" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1628,11 +1644,11 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:I991"/>
+  <dimension ref="A1:I992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1651,10 +1667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>41</v>
       </c>
@@ -1666,16 +1682,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="32" t="s">
         <v>42</v>
       </c>
@@ -1690,14 +1706,14 @@
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="42">
-        <f>COUNTIF(H7:H59, "PASS")</f>
-        <v>15</v>
+      <c r="I2" s="37">
+        <f>COUNTIF(H7:H60, "PASS")</f>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="32"/>
       <c r="D3" s="13" t="s">
         <v>9</v>
@@ -1713,15 +1729,15 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(H7:H59, "Fail")</f>
+        <f>COUNTIF(H7:H60, "Fail")</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="32"/>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1735,26 +1751,26 @@
         <v>14</v>
       </c>
       <c r="I4" s="3">
-        <f>COUNTIF(H25:H59, "WARNING")</f>
+        <f>COUNTIF(H26:H60, "WARNING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(I2:I4:I3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,564 +1802,578 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="40" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="55"/>
-    </row>
-    <row r="8" spans="1:9" s="53" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="1:9" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="53" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:9" s="45" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="40" t="s">
         <v>58</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="48" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="38" t="s">
         <v>76</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="I10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
         <v>123456</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38">
         <v>1234</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="38" t="s">
         <v>76</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="1:9" s="53" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="1:9" s="45" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="48" t="s">
         <v>73</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="48" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="40" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="48" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="38" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="38" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="48" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="38" t="s">
         <v>76</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="38" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="48" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="38" t="s">
         <v>76</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="1:9" s="53" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" s="45" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>86</v>
+      <c r="B24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>99</v>
+      <c r="B25" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="1:9" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="48" t="s">
+      <c r="B26" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="40" t="s">
         <v>99</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="58"/>
-    </row>
-    <row r="28" spans="1:9" s="52" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="51"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" s="45" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="51"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:9" s="44" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="25"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="24"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="24"/>
@@ -2351,32 +2381,32 @@
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="25"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="24"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="24"/>
@@ -2385,31 +2415,31 @@
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="25"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="24"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="23"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="24"/>
@@ -2418,31 +2448,31 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="25"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="24"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="23"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="24"/>
@@ -2451,31 +2481,31 @@
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="25"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="24"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="24"/>
@@ -2484,169 +2514,179 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="23"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="25"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="23"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="25"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="23"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="25"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="24"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="G54" s="21"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="25"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="22"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="23"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="24"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="25"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="24"/>
-    </row>
-    <row r="59" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="23"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="24"/>
     </row>
-    <row r="60" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3577,6 +3617,7 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D5:G5"/>
@@ -3588,124 +3629,124 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="H33 H7:H27">
+  <conditionalFormatting sqref="H34 H7:H28">
     <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H7:H27">
+  <conditionalFormatting sqref="H34 H7:H28">
     <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H7:H27">
+  <conditionalFormatting sqref="H34 H7:H28">
     <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H7:H27">
+  <conditionalFormatting sqref="H34 H7:H28">
     <cfRule type="containsBlanks" dxfId="44" priority="56">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H37">
     <cfRule type="containsBlanks" dxfId="40" priority="48">
-      <formula>LEN(TRIM(H36))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+      <formula>LEN(TRIM(H37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H40">
     <cfRule type="containsBlanks" dxfId="36" priority="44">
-      <formula>LEN(TRIM(H39))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+      <formula>LEN(TRIM(H40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
     <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="containsBlanks" dxfId="32" priority="40">
-      <formula>LEN(TRIM(H45))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+      <formula>LEN(TRIM(H46))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H49">
     <cfRule type="containsBlanks" dxfId="28" priority="36">
-      <formula>LEN(TRIM(H48))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+      <formula>LEN(TRIM(H49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H52">
     <cfRule type="containsBlanks" dxfId="24" priority="32">
-      <formula>LEN(TRIM(H51))=0</formula>
+      <formula>LEN(TRIM(H52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
@@ -3748,88 +3789,88 @@
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsBlanks" dxfId="12" priority="16">
-      <formula>LEN(TRIM(H30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+      <formula>LEN(TRIM(H31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="containsBlanks" dxfId="8" priority="12">
-      <formula>LEN(TRIM(H42))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+      <formula>LEN(TRIM(H43))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H55">
     <cfRule type="containsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(H54))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+      <formula>LEN(TRIM(H55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H58">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H58">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H58">
     <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(H57))=0</formula>
+      <formula>LEN(TRIM(H58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1346" yWindow="406" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="H27 H33 H36 H39 H45 H48 H51 H30 H42 H54 H57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="H28 H34 H37 H40 H46 H49 H52 H31 H43 H55 H58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
